--- a/pred_ohlcv/54_21/2020-01-23 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>210870.0042012638</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>210870.0048012638</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>210870.0048012638</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>205425.3557012638</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>201397.4202012638</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>143928.9987012637</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>143927.1075012637</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>143927.1075012637</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>143927.1075012637</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3209.925916324937</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3209.925916324937</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1414.262183675066</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-14587.50941632493</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-17739.54811632493</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-21814.91651632493</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-31304.92901632493</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-31294.92901632493</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-37512.47361632493</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-36169.14151632493</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 VALOR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>210870.0042012638</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>210870.0048012638</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>210870.0048012638</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>205425.3557012638</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>201395.4104012638</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>201397.4202012638</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>143928.9987012637</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>143927.1075012637</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>143927.1075012637</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>143927.1075012637</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3209.925916324937</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3209.925916324937</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-7051.472616324936</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1414.262183675066</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-14587.50941632493</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-15032.80331632493</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-17739.54811632493</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-21814.91651632493</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-31304.92901632493</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-31294.92901632493</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-37512.47361632493</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-36169.14151632493</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-36169.14151632493</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
